--- a/mapper/test_code_data.xlsx
+++ b/mapper/test_code_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/earlysloth/webform-parser/mapper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DB652B-F92F-FA48-83C0-39B735610D25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CA907E-144B-8047-AB64-CD280AB14F95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="50">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -31,30 +31,51 @@
     <t>현재 하고 있는 일은?</t>
   </si>
   <si>
+    <t>기술 스택 및 영역은? (중복 선택 가능)</t>
+  </si>
+  <si>
+    <t>현재 기분과 가장 비슷한 것은?</t>
+  </si>
+  <si>
     <t>12기</t>
   </si>
   <si>
     <t>얼리슬로스</t>
   </si>
   <si>
+    <t>백엔드, 파이썬, 플라스크</t>
+  </si>
+  <si>
     <t>졸림</t>
   </si>
   <si>
     <t>|⭐️Earlysloth⭐️|</t>
   </si>
   <si>
+    <t>프론트엔드, 자바스크립트, 리액트, RN</t>
+  </si>
+  <si>
     <t>자신감</t>
   </si>
   <si>
+    <t>프론트엔드, 자바스크립트, 리액트</t>
+  </si>
+  <si>
     <t>열심히 해야지</t>
   </si>
   <si>
     <t>위고두 직원</t>
   </si>
   <si>
+    <t>프론트엔드, 자바스크립트, 리액트, 노드 js</t>
+  </si>
+  <si>
     <t>브랜디</t>
   </si>
   <si>
+    <t>백엔드, 파이썬, 장고, 플라스크</t>
+  </si>
+  <si>
     <t>심심</t>
   </si>
   <si>
@@ -82,6 +103,9 @@
     <t>위고두팀</t>
   </si>
   <si>
+    <t>백엔드, 파이썬, 장고</t>
+  </si>
+  <si>
     <t>머치스퀘어</t>
   </si>
   <si>
@@ -91,117 +115,61 @@
     <t>울고싶음</t>
   </si>
   <si>
+    <t>프론트엔드, 백엔드, 자바스크립트, 노드 js</t>
+  </si>
+  <si>
     <t>놀고싶음</t>
   </si>
   <si>
+    <t>프론트엔드, 백엔드, 자바스크립트, 리액트, 노드 js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">프론트엔드, 자바스크립트, 리액트, 오이구 ~ 너무재밋어 &gt;&lt; </t>
+  </si>
+  <si>
+    <t>프론트엔드, 파이썬, 자바스크립트, 리액트</t>
+  </si>
+  <si>
+    <t>백엔드, 파이썬, 장고, Flask, vue.js</t>
+  </si>
+  <si>
+    <t>프론트엔드, 백엔드, 파이썬, 자바스크립트, 리액트</t>
+  </si>
+  <si>
+    <t>프론트엔드, 자바스크립트</t>
+  </si>
+  <si>
     <t>집에 가고 싶음</t>
   </si>
   <si>
+    <t>백엔드, 파이썬</t>
+  </si>
+  <si>
     <t>휴가가 얼마 안남았다...</t>
   </si>
   <si>
+    <t>프론트엔드, 백엔드, 파이썬, 자바스크립트, 장고, 리액트</t>
+  </si>
+  <si>
     <t>멘톨</t>
   </si>
   <si>
+    <t>백엔드, 파이썬, 장고, Flask</t>
+  </si>
+  <si>
+    <t>백엔드, 파이썬, 장고, 플라스크, graphql</t>
+  </si>
+  <si>
+    <t>프론트엔드</t>
+  </si>
+  <si>
     <t>아침: 걱정, 오후: 안도, 저녁: 걱정</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>현재</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기분과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비슷한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>것은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>00기</t>
+  </si>
+  <si>
+    <t>파이썬, 자바스크립트, 장고, 리액트, 노드 js</t>
   </si>
 </sst>
 </file>
@@ -211,7 +179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -224,23 +192,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="나눔명조"/>
       <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Malgun Gothic"/>
-      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -264,12 +218,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -488,19 +441,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="10" width="21.5" customWidth="1"/>
+    <col min="1" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="41.1640625" customWidth="1"/>
+    <col min="5" max="11" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,25 +465,31 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>44139.460752928237</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="2">
         <v>44139.46350017361</v>
       </c>
@@ -536,27 +497,33 @@
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="2">
         <v>44139.463712187498</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="2">
         <v>44139.466641793981</v>
       </c>
@@ -564,111 +531,135 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="2">
         <v>44139.46686940972</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="2">
         <v>44139.467502916668</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>44139.467561354162</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>44139.46776915509</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="2">
         <v>44139.469898668976</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="2">
         <v>44139.47091290509</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="2">
         <v>44139.471266875</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>44139.474310532409</v>
       </c>
@@ -676,13 +667,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+        <v>27</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>44139.474901215275</v>
       </c>
@@ -690,41 +684,50 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="2">
         <v>44139.475283506945</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+        <v>12</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="2">
         <v>44139.47578518519</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+        <v>27</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="2">
         <v>44139.477637361109</v>
       </c>
@@ -732,55 +735,67 @@
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+        <v>31</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="2">
         <v>44139.480307465274</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+        <v>33</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="2">
         <v>44139.481269050928</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+        <v>34</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="2">
         <v>44139.48328270833</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+        <v>35</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="2">
         <v>44139.485081678242</v>
       </c>
@@ -788,13 +803,16 @@
         <v>12</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+        <v>36</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="2">
         <v>44139.486654525463</v>
       </c>
@@ -802,13 +820,16 @@
         <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="2">
         <v>44139.488007858796</v>
       </c>
@@ -816,97 +837,118 @@
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+        <v>38</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="2">
         <v>44139.488210405092</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+        <v>12</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="2">
         <v>44139.499232766204</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1">
+        <v>40</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="2">
         <v>44139.503010717592</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+        <v>12</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="2">
         <v>44139.517243668983</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+        <v>31</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="2">
         <v>44139.517746226848</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1">
+        <v>42</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="2">
         <v>44139.518077500004</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="2">
         <v>44139.51879559028</v>
       </c>
@@ -914,41 +956,50 @@
         <v>12</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1">
+        <v>44</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="2">
         <v>44139.518811712958</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1">
+        <v>45</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="2">
         <v>44139.52552761574</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="2">
         <v>44139.527327118056</v>
       </c>
@@ -956,28 +1007,65 @@
         <v>12</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1">
+        <v>46</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="A34" s="2">
         <v>44139.530420162038</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A35" s="2">
+        <v>44139.70648508102</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A36" s="2">
+        <v>44140.846187847223</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>